--- a/data/trans_dic/P28A_2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P28A_2_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido más alcohol respecto al último mes</t>
+          <t>Población que ha consumido más alcohol respecto al último mes (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,32 +657,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -696,22 +697,22 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>2,07%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,71; 22,04</t>
+          <t>0,0; 11,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,09; 17,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,21</t>
+          <t>0,0; 13,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,47; 17,06</t>
+          <t>0,0; 7,37</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,67; 15,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,91</t>
+          <t>0,0; 7,1</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>10,26%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>1,63%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,98; 17,12</t>
+          <t>4,32; 12,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,42; 16,49</t>
+          <t>4,2; 13,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,67; 7,68</t>
+          <t>0,0; 6,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,08; 7,37</t>
+          <t>0,0; 5,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,46; 17,99</t>
+          <t>3,27; 10,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,39; 14,37</t>
+          <t>1,88; 8,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,72</t>
+          <t>0,0; 4,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,0; 10,23</t>
+          <t>0,56; 6,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,73; 15,7</t>
+          <t>4,41; 9,97</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,31; 14,27</t>
+          <t>3,68; 9,29</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,8; 5,29</t>
+          <t>0,53; 3,98</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,16; 6,98</t>
+          <t>0,42; 4,16</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>10,92%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>13,81%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>10,47%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>2,23%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,86; 23,4</t>
+          <t>6,14; 18,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,22; 16,04</t>
+          <t>3,24; 11,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 7,49</t>
+          <t>0,0; 2,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 6,29</t>
+          <t>0,66; 7,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,88; 16,11</t>
+          <t>3,51; 10,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,26; 16,34</t>
+          <t>2,97; 11,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 5,51</t>
+          <t>0,0; 4,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 8,69</t>
+          <t>0,63; 5,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,89; 17,87</t>
+          <t>5,51; 12,17</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,29; 14,35</t>
+          <t>4,14; 9,94</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 5,19</t>
+          <t>0,3; 2,67</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,5; 6,15</t>
+          <t>0,84; 4,69</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1145,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,17; 17,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,81; 13,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 5,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,71; 5,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,2; 14,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,48; 13,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,57; 3,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,94; 7,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,88; 15,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,93; 12,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,32; 5,55</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8,29%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6,23%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,03%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2,07%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5,38%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4,73%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,08%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,78%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6,73%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5,42%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,06%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1,92%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5,63; 11,77</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4,05; 9,66</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,25; 3,01</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,83; 4,51</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3,48; 7,97</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2,95; 7,38</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0,36; 2,81</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,63; 3,73</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5,19; 9,04</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>3,94; 7,31</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0,38; 2,0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 3,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
@@ -1216,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido más alcohol respecto al último mes (tasa de respuesta: 99,97%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2505</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4898</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2505</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>4898</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12309</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15710</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16309</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16798</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>28872</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>33251</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>5867</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>4577</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>23091</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>22050</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5047</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>8061</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>51963</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>55301</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>10915</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>12637</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>15821; 46861</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>18036; 55964</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 23696</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 22734</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>12787; 39928</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>8750; 40800</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 17162</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2086; 23570</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>33359; 75419</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>32854; 83063</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3989; 30120</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3245; 32226</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>31225</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>22254</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>6854</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>23610</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>26915</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4071</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>6615</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>54834</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>49169</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>6049</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>13469</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>17559; 51950</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10785; 37705</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 8363</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1816; 19298</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>12606; 38609</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>12724; 47524</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14001</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2069; 17944</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>35570; 78573</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>31498; 75697</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1889; 16720</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>5051; 28281</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>62602</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>55505</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>7846</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>16328</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>46701</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>48965</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>9118</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>14676</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>109302</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>104470</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>16964</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>31004</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>42519; 88874</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>36100; 86070</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1939; 23022</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>6553; 35620</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>30235; 69209</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>30591; 76385</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3059; 23651</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>5201; 30799</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>84259; 146817</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>75937; 140862</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>6165; 32097</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>15064; 54993</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>